--- a/数据整理/stocks/A股/深证主板/000860-顺鑫农业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000860-顺鑫农业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4811,4 +4812,744 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达消费行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>320.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.7870</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>100.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6888</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9374</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7751</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6322</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3909</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3565</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2825</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005517</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005518</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000860-顺鑫农业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000860-顺鑫农业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5552,4 +5553,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达消费行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>298.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.2712</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009265</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达消费精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0914</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7660</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0344</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5302</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2371</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>50.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000860-顺鑫农业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000860-顺鑫农业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5951,4 +5952,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>57.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>77</v>
+      </c>
+      <c r="D5" t="n">
+        <v>83.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000860-顺鑫农业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000860-顺鑫农业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5960,7 +5961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5971,17 +5972,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5991,14 +6012,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18</v>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1845</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -6007,14 +6050,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25.59</v>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1112</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -6023,14 +6088,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>35</v>
-      </c>
-      <c r="D4" t="n">
-        <v>57.63</v>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -6039,13 +6126,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>57.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>77</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>83.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000860-顺鑫农业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000860-顺鑫农业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6169,7 +6170,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6180,17 +6181,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6200,14 +6221,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.34</v>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1868</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -6216,14 +6259,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="4">
@@ -6232,14 +6365,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
         <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25.59</v>
       </c>
     </row>
     <row r="5">
@@ -6248,14 +6381,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>57.63</v>
+        <v>25.59</v>
       </c>
     </row>
     <row r="6">
@@ -6264,13 +6397,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D6" t="n">
+        <v>57.63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>77</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>83.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000860-顺鑫农业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000860-顺鑫农业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6302,7 +6303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6313,17 +6314,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6333,14 +6354,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.22</v>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -6349,14 +6392,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2.34</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
@@ -6365,14 +6498,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="5">
@@ -6381,14 +6514,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
         <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>25.59</v>
       </c>
     </row>
     <row r="6">
@@ -6397,14 +6530,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>57.63</v>
+        <v>25.59</v>
       </c>
     </row>
     <row r="7">
@@ -6413,13 +6546,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D7" t="n">
+        <v>57.63</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>77</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>83.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000860-顺鑫农业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000860-顺鑫农业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2.34</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
         <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>25.59</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>57.63</v>
+        <v>25.59</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D8" t="n">
+        <v>57.63</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>77</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>83.34</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519093</t>
+          <t>004374</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新华钻石品质企业混合</t>
+          <t>华泰保兴吉年丰混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>94.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0603</t>
+          <t>0.3310</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,948 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001004</t>
+          <t>006642</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>新华稳健回报灵活配置混合</t>
+          <t>华泰保兴吉年利定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3170</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2185</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1281</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015963</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银丰盈回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>65.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015635</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安价值先锋混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014999</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年盈混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>0.84</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0340</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013347</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银丰盈回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015964</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012615</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>70.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015636</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇安价值先锋混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>65.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007315</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇安嘉盈一年持有期债券A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010270</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇安嘉盈一年持有期债券C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015000</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年盈混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>016264</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -788,36 +1717,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001141</t>
+          <t>519093</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰达宏利创盈灵活配置混合 - A</t>
+          <t>新华钻石品质企业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>27.59</t>
+          <t>91.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1868</t>
+          <t>0.0603</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -826,36 +1755,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001142</t>
+          <t>001004</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利创盈灵活配置混合 - B</t>
+          <t>新华稳健回报灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>27.59</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0302</t>
+          <t>0.0340</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -864,6 +1793,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1868</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1071,7 +2132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1469,7 +2530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2209,7 +3270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3595,7 +4656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
